--- a/Tabelas/Pagamentos.xlsx
+++ b/Tabelas/Pagamentos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Fichas\Ars-Magica\Tabelas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Ars Magica\Tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A4F9793-09A3-4C55-A650-6F29A48F6295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87EE85E-5F6A-4519-A89C-CDCF1CCB5567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3400B367-0D63-4842-9798-E7401CEE5B66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{3400B367-0D63-4842-9798-E7401CEE5B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -240,9 +240,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -255,9 +252,12 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -573,7 +573,7 @@
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +585,9 @@
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -603,10 +605,10 @@
       <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="2" t="s">
         <v>26</v>
       </c>
@@ -621,41 +623,41 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
         <v>3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f>F19*C15*0.2</f>
-        <v>200000</v>
-      </c>
-      <c r="E3" s="5">
+        <v>20000</v>
+      </c>
+      <c r="E3" s="4">
         <f>F19*C15*0.8</f>
-        <v>800000</v>
-      </c>
-      <c r="F3" s="6">
+        <v>80000</v>
+      </c>
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f>(D3+E3)*K26</f>
-        <v>10000</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="5">
+        <v>6</v>
+      </c>
+      <c r="I3" s="6">
         <f>S17</f>
-        <v>600</v>
-      </c>
-      <c r="J3" s="7">
+        <v>6000000</v>
+      </c>
+      <c r="J3" s="6">
         <f>X19+G3</f>
-        <v>710000</v>
-      </c>
-      <c r="K3" s="5">
+        <v>71000</v>
+      </c>
+      <c r="K3" s="4">
         <f>J3-I3</f>
-        <v>709400</v>
+        <v>-5929000</v>
       </c>
     </row>
     <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1064,7 @@
     <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="C15">
         <f>VLOOKUP(B3,B6:C14,2,0)</f>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E15">
         <v>9</v>
@@ -1148,7 +1150,7 @@
       </c>
       <c r="S17">
         <f>VLOOKUP(H3,L6:S16,8,0)</f>
-        <v>600</v>
+        <v>6000000</v>
       </c>
       <c r="T17">
         <v>11</v>
@@ -1202,7 +1204,7 @@
       </c>
       <c r="X19">
         <f>VLOOKUP(C3,W6:X18,2,0)*C15</f>
-        <v>700000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="20" spans="5:24" hidden="1" x14ac:dyDescent="0.25">
